--- a/stock_forecast/01-preparation_analysis/data/SEDG.xlsx
+++ b/stock_forecast/01-preparation_analysis/data/SEDG.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2155"/>
+  <dimension ref="A1:H2163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60849,6 +60849,230 @@
         <v>0</v>
       </c>
       <c r="H2155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>125.0849990844727</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>117.7200012207031</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>123.5999984741211</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1762000</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>121.5500030517578</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>130.3800048828125</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>121.0999984741211</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>127.6500015258789</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2020600</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>125.7399978637695</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>126.0899963378906</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>120.4899978637695</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>120.7799987792969</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>1478300</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>120.7399978637695</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>120.7399978637695</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>113.4300003051758</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>113.9800033569336</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>2647000</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B2160" t="n">
+        <v>75.56999969482422</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>85.38999938964844</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>72.37000274658203</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>82.90000152587891</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>21304200</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B2161" t="n">
+        <v>80.65000152587891</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>86.28900146484375</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>80.07499694824219</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>85.48999786376953</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>5374100</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B2162" t="n">
+        <v>86.68000030517578</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>88.30500030517578</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>82.73000335693359</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>83.33999633789062</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>3344000</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B2163" t="n">
+        <v>82</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>81.04000091552734</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>3898300</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -63984,7 +64208,7 @@
         <v>0.1036</v>
       </c>
       <c r="F2" t="n">
-        <v>701888462</v>
+        <v>474958589</v>
       </c>
     </row>
     <row r="3">
@@ -64006,7 +64230,7 @@
         <v>0.0431</v>
       </c>
       <c r="F3" t="n">
-        <v>291860394</v>
+        <v>197498047</v>
       </c>
     </row>
     <row r="4">
@@ -64028,7 +64252,7 @@
         <v>0.0406</v>
       </c>
       <c r="F4" t="n">
-        <v>275008126</v>
+        <v>186094342</v>
       </c>
     </row>
     <row r="5">
@@ -64050,7 +64274,7 @@
         <v>0.0295</v>
       </c>
       <c r="F5" t="n">
-        <v>199755132</v>
+        <v>135171642</v>
       </c>
     </row>
     <row r="6">
@@ -64072,7 +64296,7 @@
         <v>0.0266</v>
       </c>
       <c r="F6" t="n">
-        <v>180119043</v>
+        <v>121884161</v>
       </c>
     </row>
     <row r="7">
@@ -64094,7 +64318,7 @@
         <v>0.026</v>
       </c>
       <c r="F7" t="n">
-        <v>176310914</v>
+        <v>119307251</v>
       </c>
     </row>
     <row r="8">
@@ -64116,7 +64340,7 @@
         <v>0.0217</v>
       </c>
       <c r="F8" t="n">
-        <v>147160491</v>
+        <v>99581547</v>
       </c>
     </row>
     <row r="9">
@@ -64138,7 +64362,7 @@
         <v>0.0178</v>
       </c>
       <c r="F9" t="n">
-        <v>120425149</v>
+        <v>81490097</v>
       </c>
     </row>
     <row r="10">
@@ -64160,7 +64384,7 @@
         <v>0.0173</v>
       </c>
       <c r="F10" t="n">
-        <v>116975222</v>
+        <v>79155577</v>
       </c>
     </row>
     <row r="11">
@@ -64182,7 +64406,7 @@
         <v>0.0165</v>
       </c>
       <c r="F11" t="n">
-        <v>112000871</v>
+        <v>75789500</v>
       </c>
     </row>
   </sheetData>
@@ -64250,7 +64474,7 @@
         <v>0.0237</v>
       </c>
       <c r="F2" t="n">
-        <v>160668941</v>
+        <v>108722535</v>
       </c>
     </row>
     <row r="3">
@@ -64263,16 +64487,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1061998</v>
+        <v>1049440</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>45168</v>
+        <v>45198</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0188</v>
+        <v>0.0186</v>
       </c>
       <c r="F3" t="n">
-        <v>127184882</v>
+        <v>85046618</v>
       </c>
     </row>
     <row r="4">
@@ -64294,7 +64518,7 @@
         <v>0.0123</v>
       </c>
       <c r="F4" t="n">
-        <v>83644816</v>
+        <v>56601335</v>
       </c>
     </row>
     <row r="5">
@@ -64316,7 +64540,7 @@
         <v>0.0111</v>
       </c>
       <c r="F5" t="n">
-        <v>74906288</v>
+        <v>50688089</v>
       </c>
     </row>
     <row r="6">
@@ -64329,16 +64553,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>614935</v>
+        <v>629895</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>45168</v>
+        <v>45198</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0109</v>
+        <v>0.0111</v>
       </c>
       <c r="F6" t="n">
-        <v>73644616</v>
+        <v>51046691</v>
       </c>
     </row>
     <row r="7">
@@ -64351,16 +64575,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>526694</v>
+        <v>534592</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>45168</v>
+        <v>45198</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009300000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="F7" t="n">
-        <v>63076874</v>
+        <v>43323336</v>
       </c>
     </row>
     <row r="8">
@@ -64382,7 +64606,7 @@
         <v>0.0091</v>
       </c>
       <c r="F8" t="n">
-        <v>61603946</v>
+        <v>41686571</v>
       </c>
     </row>
     <row r="9">
@@ -64404,7 +64628,7 @@
         <v>0.0071</v>
       </c>
       <c r="F9" t="n">
-        <v>47786037</v>
+        <v>32336175</v>
       </c>
     </row>
     <row r="10">
@@ -64426,7 +64650,7 @@
         <v>0.0068</v>
       </c>
       <c r="F10" t="n">
-        <v>46060654</v>
+        <v>31168632</v>
       </c>
     </row>
     <row r="11">
@@ -64448,7 +64672,7 @@
         <v>0.0062</v>
       </c>
       <c r="F11" t="n">
-        <v>42300909</v>
+        <v>28624462</v>
       </c>
     </row>
   </sheetData>

--- a/stock_forecast/01-preparation_analysis/data/SEDG.xlsx
+++ b/stock_forecast/01-preparation_analysis/data/SEDG.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2163"/>
+  <dimension ref="A1:H2164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61067,12 +61067,40 @@
         <v>81.04000091552734</v>
       </c>
       <c r="F2163" t="n">
-        <v>3898300</v>
+        <v>3899800</v>
       </c>
       <c r="G2163" t="n">
         <v>0</v>
       </c>
       <c r="H2163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B2164" t="n">
+        <v>82.34999847412109</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>85.11000061035156</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>80.83999633789062</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>84.44000244140625</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>2099221</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -64208,7 +64236,7 @@
         <v>0.1036</v>
       </c>
       <c r="F2" t="n">
-        <v>474958589</v>
+        <v>494313842</v>
       </c>
     </row>
     <row r="3">
@@ -64230,7 +64258,7 @@
         <v>0.0431</v>
       </c>
       <c r="F3" t="n">
-        <v>197498047</v>
+        <v>205546380</v>
       </c>
     </row>
     <row r="4">
@@ -64252,7 +64280,7 @@
         <v>0.0406</v>
       </c>
       <c r="F4" t="n">
-        <v>186094342</v>
+        <v>193677957</v>
       </c>
     </row>
     <row r="5">
@@ -64274,7 +64302,7 @@
         <v>0.0295</v>
       </c>
       <c r="F5" t="n">
-        <v>135171642</v>
+        <v>140680082</v>
       </c>
     </row>
     <row r="6">
@@ -64296,7 +64324,7 @@
         <v>0.0266</v>
       </c>
       <c r="F6" t="n">
-        <v>121884161</v>
+        <v>126851118</v>
       </c>
     </row>
     <row r="7">
@@ -64318,7 +64346,7 @@
         <v>0.026</v>
       </c>
       <c r="F7" t="n">
-        <v>119307251</v>
+        <v>124169195</v>
       </c>
     </row>
     <row r="8">
@@ -64340,7 +64368,7 @@
         <v>0.0217</v>
       </c>
       <c r="F8" t="n">
-        <v>99581547</v>
+        <v>103639640</v>
       </c>
     </row>
     <row r="9">
@@ -64362,7 +64390,7 @@
         <v>0.0178</v>
       </c>
       <c r="F9" t="n">
-        <v>81490097</v>
+        <v>84810937</v>
       </c>
     </row>
     <row r="10">
@@ -64384,7 +64412,7 @@
         <v>0.0173</v>
       </c>
       <c r="F10" t="n">
-        <v>79155577</v>
+        <v>82381282</v>
       </c>
     </row>
     <row r="11">
@@ -64406,7 +64434,7 @@
         <v>0.0165</v>
       </c>
       <c r="F11" t="n">
-        <v>75789500</v>
+        <v>78878032</v>
       </c>
     </row>
   </sheetData>
@@ -64474,7 +64502,7 @@
         <v>0.0237</v>
       </c>
       <c r="F2" t="n">
-        <v>108722535</v>
+        <v>113153137</v>
       </c>
     </row>
     <row r="3">
@@ -64496,7 +64524,7 @@
         <v>0.0186</v>
       </c>
       <c r="F3" t="n">
-        <v>85046618</v>
+        <v>88512391</v>
       </c>
     </row>
     <row r="4">
@@ -64518,7 +64546,7 @@
         <v>0.0123</v>
       </c>
       <c r="F4" t="n">
-        <v>56601335</v>
+        <v>58907921</v>
       </c>
     </row>
     <row r="5">
@@ -64540,7 +64568,7 @@
         <v>0.0111</v>
       </c>
       <c r="F5" t="n">
-        <v>50688089</v>
+        <v>52753702</v>
       </c>
     </row>
     <row r="6">
@@ -64562,7 +64590,7 @@
         <v>0.0111</v>
       </c>
       <c r="F6" t="n">
-        <v>51046691</v>
+        <v>53126918</v>
       </c>
     </row>
     <row r="7">
@@ -64584,7 +64612,7 @@
         <v>0.0095</v>
       </c>
       <c r="F7" t="n">
-        <v>43323336</v>
+        <v>45088825</v>
       </c>
     </row>
     <row r="8">
@@ -64606,7 +64634,7 @@
         <v>0.0091</v>
       </c>
       <c r="F8" t="n">
-        <v>41686571</v>
+        <v>43385359</v>
       </c>
     </row>
     <row r="9">
@@ -64628,7 +64656,7 @@
         <v>0.0071</v>
       </c>
       <c r="F9" t="n">
-        <v>32336175</v>
+        <v>33653922</v>
       </c>
     </row>
     <row r="10">
@@ -64650,7 +64678,7 @@
         <v>0.0068</v>
       </c>
       <c r="F10" t="n">
-        <v>31168632</v>
+        <v>32438799</v>
       </c>
     </row>
     <row r="11">
@@ -64672,7 +64700,7 @@
         <v>0.0062</v>
       </c>
       <c r="F11" t="n">
-        <v>28624462</v>
+        <v>29790951</v>
       </c>
     </row>
   </sheetData>
